--- a/PL/assignment_2/resultados/LSTM.xlsx
+++ b/PL/assignment_2/resultados/LSTM.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C910943-9260-454B-B3A7-522F8CB7F3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4005" yWindow="1335" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LSTM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,107 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>hasBalance</t>
+  </si>
+  <si>
+    <t>ENCODING</t>
+  </si>
+  <si>
+    <t>N. Hidden Neurons</t>
+  </si>
+  <si>
+    <t>Point by Point</t>
+  </si>
+  <si>
+    <t>Post Processing</t>
+  </si>
+  <si>
+    <t>Predict</t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+  <si>
+    <t>Ephocs</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>specificity</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Solver Name</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>N. Features</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>0.4520</t>
+  </si>
+  <si>
+    <t>LSTM29F_20H_5Ep.mat</t>
+  </si>
+  <si>
+    <t>0.4153</t>
+  </si>
+  <si>
+    <t>0.3785</t>
+  </si>
+  <si>
+    <t>LSTMAUTO_B_29F_20H_5Ep.mat</t>
+  </si>
+  <si>
+    <t>0.3333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3294</t>
+  </si>
+  <si>
+    <t>LSTMB_29F_20H_5Ep.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0000</t>
+  </si>
+  <si>
+    <t>0.4472</t>
+  </si>
+  <si>
+    <t>LSTM_63502_B_29F_30H_10Ep.mat</t>
+  </si>
+  <si>
+    <t>0.1539</t>
+  </si>
+  <si>
+    <t>0.9996</t>
+  </si>
+  <si>
+    <t>0.1191</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +132,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA709F5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +179,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +487,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44202</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44202</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44202</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6">
+        <v>63502</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PL/assignment_2/resultados/LSTM.xlsx
+++ b/PL/assignment_2/resultados/LSTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C910943-9260-454B-B3A7-522F8CB7F3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EF9EF0-E2FB-4E70-97A5-B1DAB6DDBABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1335" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="1035" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LSTM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -78,46 +78,61 @@
     <t>1.0000</t>
   </si>
   <si>
-    <t>0.4520</t>
-  </si>
-  <si>
-    <t>LSTM29F_20H_5Ep.mat</t>
-  </si>
-  <si>
-    <t>0.4153</t>
-  </si>
-  <si>
-    <t>0.3785</t>
-  </si>
-  <si>
-    <t>LSTMAUTO_B_29F_20H_5Ep.mat</t>
-  </si>
-  <si>
-    <t>0.3333</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3294</t>
-  </si>
-  <si>
-    <t>LSTMB_29F_20H_5Ep.mat</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.0000</t>
   </si>
   <si>
-    <t>0.4472</t>
-  </si>
-  <si>
-    <t>LSTM_63502_B_29F_30H_10Ep.mat</t>
-  </si>
-  <si>
-    <t>0.1539</t>
-  </si>
-  <si>
-    <t>0.9996</t>
-  </si>
-  <si>
-    <t>0.1191</t>
+    <t>LSTM_44202_29F_30H_5Ep.mat</t>
+  </si>
+  <si>
+    <t>0.4689</t>
+  </si>
+  <si>
+    <t>0.9999</t>
+  </si>
+  <si>
+    <t>0.4576</t>
+  </si>
+  <si>
+    <t>LSTM_44202_AUTO_B_29F_30H_5Ep.mat</t>
+  </si>
+  <si>
+    <t>0.3079</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3032</t>
+  </si>
+  <si>
+    <t>LSTM_44202_B_29F_30H_5Ep.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4153</t>
+  </si>
+  <si>
+    <t>0.3976</t>
+  </si>
+  <si>
+    <t>LSTM_63502_B_29F_30H_5Ep.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1989</t>
+  </si>
+  <si>
+    <t>0.9983</t>
+  </si>
+  <si>
+    <t>0.1554</t>
+  </si>
+  <si>
+    <t>LSTM_63502_B_29F_100H_5Ep.mat</t>
+  </si>
+  <si>
+    <t>0.1609</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9985</t>
+  </si>
+  <si>
+    <t>0.1076</t>
   </si>
 </sst>
 </file>
@@ -179,17 +194,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,6 +213,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,12 +508,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="6" width="13.7109375" customWidth="1"/>
@@ -511,474 +530,511 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="3"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>44202</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>29</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5">
+      <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44202</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>5</v>
       </c>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
         <v>44202</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3">
+        <v>63502</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F7" s="6">
         <v>29</v>
       </c>
-      <c r="G5" s="5">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>5</v>
       </c>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6">
-        <v>44202</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>63502</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F8" s="6">
         <v>29</v>
       </c>
-      <c r="G6" s="5">
-        <v>20</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>5</v>
       </c>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6">
-        <v>63502</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="7"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="7"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="7"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="7"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="7"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="7"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="7"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -986,13 +1042,7 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="P1:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/assignment_2/resultados/LSTM.xlsx
+++ b/PL/assignment_2/resultados/LSTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EF9EF0-E2FB-4E70-97A5-B1DAB6DDBABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F60B6A-7662-4CB7-A109-85F8F6CA8AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1035" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="360" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LSTM" sheetId="1" r:id="rId1"/>
@@ -1028,13 +1028,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -1043,6 +1036,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P1:P3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/assignment_2/resultados/LSTM.xlsx
+++ b/PL/assignment_2/resultados/LSTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F60B6A-7662-4CB7-A109-85F8F6CA8AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C592206C-06D6-47F8-8647-7ED3F0C0A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="360" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LSTM" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Point by Point</t>
   </si>
   <si>
-    <t>Post Processing</t>
-  </si>
-  <si>
     <t>Predict</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>0.1076</t>
+  </si>
+  <si>
+    <t>Seizure by Seizure</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +218,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,167 +545,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44202</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F4" s="9">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
-        <v>44202</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
         <v>5</v>
       </c>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>44202</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6">
         <v>29</v>
@@ -705,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -717,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -728,67 +743,67 @@
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44202</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3">
-        <v>44202</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="K6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
         <v>5</v>
       </c>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3">
         <v>63502</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6">
         <v>29</v>
@@ -803,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -815,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -827,17 +842,17 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3">
         <v>63502</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6">
         <v>29</v>
@@ -852,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -864,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>

--- a/PL/assignment_2/resultados/LSTM.xlsx
+++ b/PL/assignment_2/resultados/LSTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C592206C-06D6-47F8-8647-7ED3F0C0A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E918B-3721-4019-8A63-29BC3354EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +187,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,17 +235,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +539,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,78 +560,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
       <c r="P1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
@@ -642,51 +657,51 @@
         <v>10</v>
       </c>
       <c r="P3" s="13"/>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="15">
         <v>44202</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="16">
         <v>29</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="14">
         <v>30</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
+      <c r="P4" s="14">
         <v>5</v>
       </c>
       <c r="Q4" s="4"/>
@@ -1043,6 +1058,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -1051,13 +1073,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P1:P3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/assignment_2/resultados/LSTM.xlsx
+++ b/PL/assignment_2/resultados/LSTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E918B-3721-4019-8A63-29BC3354EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FC7F0-DAD8-4BFE-B808-526AB961B03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,6 +235,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,19 +254,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,78 +560,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="13" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="10"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
@@ -656,52 +656,52 @@
       <c r="O3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="10"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>44202</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <v>29</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <v>30</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <v>0</v>
       </c>
-      <c r="M4" s="14">
-        <v>1</v>
-      </c>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="14">
-        <v>1</v>
-      </c>
-      <c r="P4" s="14">
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4" s="10">
         <v>5</v>
       </c>
       <c r="Q4" s="4"/>
@@ -1058,13 +1058,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -1073,6 +1066,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P1:P3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
